--- a/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>Datetime</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>SOPHY_20220509_085908_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -654,25 +657,25 @@
         <v>0.943670544355381</v>
       </c>
       <c r="J2">
-        <v>0.8646493166056142</v>
+        <v>4.549454577533128E-208</v>
       </c>
       <c r="K2">
-        <v>2026228.257791959</v>
+        <v>202622.8257791959</v>
       </c>
       <c r="L2">
-        <v>63.0668836773485</v>
+        <v>53.0668836773485</v>
       </c>
       <c r="M2">
-        <v>2147177.603361637</v>
+        <v>214717.7603361638</v>
       </c>
       <c r="N2">
-        <v>63.31867968502319</v>
+        <v>53.31867968502319</v>
       </c>
       <c r="O2">
-        <v>2483293.009229328</v>
+        <v>4.719637413164177E+212</v>
       </c>
       <c r="P2">
-        <v>63.95027965943513</v>
+        <v>2126.739086351784</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -704,25 +707,25 @@
         <v>0.3603201462020353</v>
       </c>
       <c r="J3">
-        <v>0.6378552384059908</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>214829569.2696968</v>
+        <v>21482956.92696968</v>
       </c>
       <c r="L3">
-        <v>83.32094057692547</v>
+        <v>73.32094057692547</v>
       </c>
       <c r="M3">
-        <v>596218589.3131813</v>
+        <v>59621858.93131813</v>
       </c>
       <c r="N3">
-        <v>87.75405512639716</v>
-      </c>
-      <c r="O3">
-        <v>934723983.4592251</v>
-      </c>
-      <c r="P3">
-        <v>89.70683386105115</v>
+        <v>77.75405512639718</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -754,25 +757,25 @@
         <v>0.9274279398670143</v>
       </c>
       <c r="J4">
-        <v>0.03954121273337643</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8268662.090602695</v>
+        <v>826866.2090602695</v>
       </c>
       <c r="L4">
-        <v>69.17435244295706</v>
+        <v>59.17435244295706</v>
       </c>
       <c r="M4">
-        <v>8915692.244281916</v>
+        <v>891569.2244281917</v>
       </c>
       <c r="N4">
-        <v>69.50155068902309</v>
-      </c>
-      <c r="O4">
-        <v>225478472.4080112</v>
-      </c>
-      <c r="P4">
-        <v>83.53105083860504</v>
+        <v>59.50155068902309</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -804,25 +807,25 @@
         <v>0.2890611972023813</v>
       </c>
       <c r="J5">
-        <v>0.1264534720346344</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>106765494.3772053</v>
+        <v>10676549.43772054</v>
       </c>
       <c r="L5">
-        <v>80.28430915399301</v>
+        <v>70.28430915399301</v>
       </c>
       <c r="M5">
-        <v>369352564.1300631</v>
+        <v>36935256.41300631</v>
       </c>
       <c r="N5">
-        <v>85.67441118339195</v>
-      </c>
-      <c r="O5">
-        <v>2920857436.234736</v>
-      </c>
-      <c r="P5">
-        <v>94.65510360065798</v>
+        <v>75.67441118339195</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -854,25 +857,25 @@
         <v>0.4688316060884716</v>
       </c>
       <c r="J6">
-        <v>0.7041527074924014</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>196634731.4568926</v>
+        <v>19663473.14568926</v>
       </c>
       <c r="L6">
-        <v>82.93660229406028</v>
+        <v>72.93660229406028</v>
       </c>
       <c r="M6">
-        <v>419414409.9998804</v>
+        <v>41941440.99998804</v>
       </c>
       <c r="N6">
-        <v>86.2264334762652</v>
-      </c>
-      <c r="O6">
-        <v>595629904.6175383</v>
-      </c>
-      <c r="P6">
-        <v>87.74976494124375</v>
+        <v>76.2264334762652</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -904,25 +907,25 @@
         <v>0.4182233562181772</v>
       </c>
       <c r="J7">
-        <v>0.6166413775249336</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>82468919.42865267</v>
+        <v>8246891.942865268</v>
       </c>
       <c r="L7">
-        <v>79.16290304139366</v>
+        <v>69.16290304139366</v>
       </c>
       <c r="M7">
-        <v>197188698.819658</v>
+        <v>19718869.8819658</v>
       </c>
       <c r="N7">
-        <v>82.94882021249704</v>
-      </c>
-      <c r="O7">
-        <v>319778571.4788248</v>
-      </c>
-      <c r="P7">
-        <v>85.04849358095944</v>
+        <v>72.94882021249704</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -954,25 +957,25 @@
         <v>0.3774353234026009</v>
       </c>
       <c r="J8">
-        <v>0.642062469611331</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1348888899.471006</v>
+        <v>134888889.9471006</v>
       </c>
       <c r="L8">
-        <v>91.29976180706981</v>
+        <v>81.29976180706981</v>
       </c>
       <c r="M8">
-        <v>3573827927.15503</v>
+        <v>357382792.7155031</v>
       </c>
       <c r="N8">
-        <v>95.53133638240669</v>
-      </c>
-      <c r="O8">
-        <v>5566168552.599606</v>
-      </c>
-      <c r="P8">
-        <v>97.45556353337511</v>
+        <v>85.53133638240669</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1004,25 +1007,25 @@
         <v>0.4099623680523841</v>
       </c>
       <c r="J9">
-        <v>0.8784268579228283</v>
+        <v>1.571829703214146E-185</v>
       </c>
       <c r="K9">
-        <v>114243256.3393978</v>
+        <v>11424325.63393978</v>
       </c>
       <c r="L9">
-        <v>80.57830573546914</v>
+        <v>70.57830573546914</v>
       </c>
       <c r="M9">
-        <v>278667666.2107681</v>
+        <v>27866766.62107681</v>
       </c>
       <c r="N9">
-        <v>84.45086580479077</v>
+        <v>74.45086580479077</v>
       </c>
       <c r="O9">
-        <v>317234911.1338871</v>
+        <v>1.772887136824913E+192</v>
       </c>
       <c r="P9">
-        <v>85.01380974605573</v>
+        <v>1922.486810890051</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1054,25 +1057,25 @@
         <v>0.4419338497535122</v>
       </c>
       <c r="J10">
-        <v>0.3283609460016541</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>186962062.5727214</v>
+        <v>18696206.25727214</v>
       </c>
       <c r="L10">
-        <v>82.71753490564157</v>
+        <v>72.71753490564157</v>
       </c>
       <c r="M10">
-        <v>423054406.6199029</v>
+        <v>42305440.66199029</v>
       </c>
       <c r="N10">
-        <v>86.26396223108787</v>
-      </c>
-      <c r="O10">
-        <v>1288382226.240059</v>
-      </c>
-      <c r="P10">
-        <v>91.10044724918914</v>
+        <v>76.26396223108787</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1104,25 +1107,25 @@
         <v>0.326268644896119</v>
       </c>
       <c r="J11">
-        <v>0.8509350628661528</v>
+        <v>7.303309501697897E-231</v>
       </c>
       <c r="K11">
-        <v>6379398.134084996</v>
+        <v>637939.8134084996</v>
       </c>
       <c r="L11">
-        <v>68.04779707032188</v>
+        <v>58.04779707032188</v>
       </c>
       <c r="M11">
-        <v>19552593.3425694</v>
+        <v>1955259.33425694</v>
       </c>
       <c r="N11">
-        <v>72.91204367853267</v>
+        <v>62.91204367853268</v>
       </c>
       <c r="O11">
-        <v>22977773.74070307</v>
+        <v>2.677223707693581E+236</v>
       </c>
       <c r="P11">
-        <v>73.61307948679317</v>
+        <v>2364.276846621685</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1154,25 +1157,25 @@
         <v>0.3562989270437258</v>
       </c>
       <c r="J12">
-        <v>0.1156736969754061</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1271241560.624527</v>
+        <v>127124156.0624527</v>
       </c>
       <c r="L12">
-        <v>91.04228082795018</v>
+        <v>81.04228082795018</v>
       </c>
       <c r="M12">
-        <v>3567907350.078878</v>
+        <v>356790735.0078878</v>
       </c>
       <c r="N12">
-        <v>95.52413568273614</v>
-      </c>
-      <c r="O12">
-        <v>30844586482.24467</v>
-      </c>
-      <c r="P12">
-        <v>104.8917895225278</v>
+        <v>85.52413568273614</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1204,25 +1207,25 @@
         <v>0.3646211489021747</v>
       </c>
       <c r="J13">
-        <v>0.1156736969754061</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>451963074.1498157</v>
+        <v>45196307.41498157</v>
       </c>
       <c r="L13">
-        <v>86.55102953952834</v>
+        <v>76.55102953952833</v>
       </c>
       <c r="M13">
-        <v>1239541577.636448</v>
+        <v>123954157.7636448</v>
       </c>
       <c r="N13">
-        <v>90.93261098780515</v>
-      </c>
-      <c r="O13">
-        <v>10715846471.99434</v>
-      </c>
-      <c r="P13">
-        <v>100.3002648275968</v>
+        <v>80.93261098780515</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1254,25 +1257,25 @@
         <v>0.5049464327702138</v>
       </c>
       <c r="J14">
-        <v>0.3447516775546519</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>81144282.89970525</v>
+        <v>8114428.289970525</v>
       </c>
       <c r="L14">
-        <v>79.09257926595076</v>
+        <v>69.09257926595076</v>
       </c>
       <c r="M14">
-        <v>160698794.2355295</v>
+        <v>16069879.42355296</v>
       </c>
       <c r="N14">
-        <v>82.06012618152141</v>
-      </c>
-      <c r="O14">
-        <v>466129114.6583462</v>
-      </c>
-      <c r="P14">
-        <v>86.68506230030994</v>
+        <v>72.06012618152141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1304,25 +1307,25 @@
         <v>0.04721785530522291</v>
       </c>
       <c r="J15">
-        <v>0.01545799205901525</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>17413671.20135752</v>
+        <v>1741367.120135752</v>
       </c>
       <c r="L15">
-        <v>72.40890340009548</v>
+        <v>62.40890340009549</v>
       </c>
       <c r="M15">
-        <v>368794200.6004525</v>
+        <v>36879420.06004525</v>
       </c>
       <c r="N15">
-        <v>85.66784083024149</v>
-      </c>
-      <c r="O15">
-        <v>23857833487.84736</v>
-      </c>
-      <c r="P15">
-        <v>103.776310031653</v>
+        <v>75.66784083024149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1354,25 +1357,25 @@
         <v>0.213803913180315</v>
       </c>
       <c r="J16">
-        <v>0.01213154155399719</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>694257395.0733308</v>
+        <v>69425739.50733308</v>
       </c>
       <c r="L16">
-        <v>88.41520514453892</v>
+        <v>78.41520514453892</v>
       </c>
       <c r="M16">
-        <v>3247168794.744265</v>
+        <v>324716879.4744265</v>
       </c>
       <c r="N16">
-        <v>95.11504864764177</v>
-      </c>
-      <c r="O16">
-        <v>267663328711.4582</v>
-      </c>
-      <c r="P16">
-        <v>114.2758887462664</v>
+        <v>85.11504864764177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1404,25 +1407,25 @@
         <v>0.4643603380715843</v>
       </c>
       <c r="J17">
-        <v>0.04582089407009806</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1117414921.314345</v>
+        <v>111741492.1314345</v>
       </c>
       <c r="L17">
-        <v>90.48214466380881</v>
+        <v>80.48214466380881</v>
       </c>
       <c r="M17">
-        <v>2406353061.837266</v>
+        <v>240635306.1837266</v>
       </c>
       <c r="N17">
-        <v>93.81359347674896</v>
-      </c>
-      <c r="O17">
-        <v>52516501711.1181</v>
-      </c>
-      <c r="P17">
-        <v>107.2029578866347</v>
+        <v>83.81359347674896</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1454,25 +1457,25 @@
         <v>0.4391901968824491</v>
       </c>
       <c r="J18">
-        <v>0.3733406698051143</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>241681156.3580678</v>
+        <v>24168115.63580678</v>
       </c>
       <c r="L18">
-        <v>83.83242790214275</v>
+        <v>73.83242790214274</v>
       </c>
       <c r="M18">
-        <v>550288139.5659992</v>
+        <v>55028813.95659992</v>
       </c>
       <c r="N18">
-        <v>87.40590152504872</v>
-      </c>
-      <c r="O18">
-        <v>1473957123.003107</v>
-      </c>
-      <c r="P18">
-        <v>91.68484850202822</v>
+        <v>77.40590152504872</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1504,25 +1507,25 @@
         <v>0.4691419060383602</v>
       </c>
       <c r="J19">
-        <v>0.8654932042826784</v>
+        <v>1.118798652121479E-206</v>
       </c>
       <c r="K19">
-        <v>619569616.9457469</v>
+        <v>61956961.6945747</v>
       </c>
       <c r="L19">
-        <v>87.92090112256406</v>
+        <v>77.92090112256408</v>
       </c>
       <c r="M19">
-        <v>1320644370.010908</v>
+        <v>132064437.0010908</v>
       </c>
       <c r="N19">
-        <v>91.20785884279709</v>
+        <v>81.20785884279709</v>
       </c>
       <c r="O19">
-        <v>1525886469.675357</v>
+        <v>1.180412907636854E+214</v>
       </c>
       <c r="P19">
-        <v>91.8352222206728</v>
+        <v>2140.720339497985</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1554,25 +1557,25 @@
         <v>0.6160169839417675</v>
       </c>
       <c r="J20">
-        <v>0.8226243094133839</v>
+        <v>4.198309820547319E-279</v>
       </c>
       <c r="K20">
-        <v>4830497.19882523</v>
+        <v>483049.719882523</v>
       </c>
       <c r="L20">
-        <v>66.83991834601004</v>
+        <v>56.83991834601004</v>
       </c>
       <c r="M20">
-        <v>7841500.031242417</v>
+        <v>784150.0031242418</v>
       </c>
       <c r="N20">
-        <v>68.94399148523415</v>
+        <v>58.94399148523415</v>
       </c>
       <c r="O20">
-        <v>9532297.965804361</v>
+        <v>1.86777545403263E+284</v>
       </c>
       <c r="P20">
-        <v>69.79197609302</v>
+        <v>2842.713246636841</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1604,25 +1607,25 @@
         <v>0.4199790252993172</v>
       </c>
       <c r="J21">
-        <v>0.3528803102875575</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>405603643.6003463</v>
+        <v>40560364.36003463</v>
       </c>
       <c r="L21">
-        <v>86.08101847677392</v>
+        <v>76.08101847677392</v>
       </c>
       <c r="M21">
-        <v>965771191.3381255</v>
+        <v>96577119.13381255</v>
       </c>
       <c r="N21">
-        <v>89.848742463848</v>
-      </c>
-      <c r="O21">
-        <v>2736823685.49022</v>
-      </c>
-      <c r="P21">
-        <v>94.37246819739265</v>
+        <v>79.848742463848</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1654,25 +1657,25 @@
         <v>0.2830293005230919</v>
       </c>
       <c r="J22">
-        <v>0.04818022040244065</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>64206706.32567608</v>
+        <v>6420670.632567608</v>
       </c>
       <c r="L22">
-        <v>78.07580392058335</v>
+        <v>68.07580392058335</v>
       </c>
       <c r="M22">
-        <v>226855333.37718</v>
+        <v>22685533.337718</v>
       </c>
       <c r="N22">
-        <v>83.55748994001203</v>
-      </c>
-      <c r="O22">
-        <v>4708474379.782792</v>
-      </c>
-      <c r="P22">
-        <v>96.72880211635997</v>
+        <v>73.55748994001203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1704,25 +1707,25 @@
         <v>0.4059991517369718</v>
       </c>
       <c r="J23">
-        <v>0.7270204998301301</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>6971535.268366548</v>
+        <v>697153.5268366549</v>
       </c>
       <c r="L23">
-        <v>68.43328428766274</v>
+        <v>58.43328428766274</v>
       </c>
       <c r="M23">
-        <v>17171305.01022102</v>
+        <v>1717130.501022102</v>
       </c>
       <c r="N23">
-        <v>72.3480330256922</v>
-      </c>
-      <c r="O23">
-        <v>23618735.66733418</v>
-      </c>
-      <c r="P23">
-        <v>73.73256645716255</v>
+        <v>62.3480330256922</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1754,25 +1757,25 @@
         <v>0.4528680836640006</v>
       </c>
       <c r="J24">
-        <v>0.1569458169720588</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>443934114.7351074</v>
+        <v>44393411.47351074</v>
       </c>
       <c r="L24">
-        <v>86.47318520271868</v>
+        <v>76.47318520271868</v>
       </c>
       <c r="M24">
-        <v>980272469.508976</v>
+        <v>98027246.9508976</v>
       </c>
       <c r="N24">
-        <v>89.91346805853058</v>
-      </c>
-      <c r="O24">
-        <v>6245929253.937966</v>
-      </c>
-      <c r="P24">
-        <v>97.95597060778208</v>
+        <v>79.9134680585306</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1804,25 +1807,25 @@
         <v>0.5831417290967718</v>
       </c>
       <c r="J25">
-        <v>0.4439636840240793</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>166929089.8849558</v>
+        <v>16692908.98849558</v>
       </c>
       <c r="L25">
-        <v>82.22532025568742</v>
+        <v>72.22532025568742</v>
       </c>
       <c r="M25">
-        <v>286258179.7113237</v>
+        <v>28625817.97113238</v>
       </c>
       <c r="N25">
-        <v>84.56757905313837</v>
-      </c>
-      <c r="O25">
-        <v>644778368.1689559</v>
-      </c>
-      <c r="P25">
-        <v>88.0941045878704</v>
+        <v>74.56757905313837</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1854,25 +1857,25 @@
         <v>0.5831417290967718</v>
       </c>
       <c r="J26">
-        <v>0.1343936415610785</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>17416231.21389645</v>
+        <v>1741623.121389646</v>
       </c>
       <c r="L26">
-        <v>72.40954181665377</v>
+        <v>62.40954181665377</v>
       </c>
       <c r="M26">
-        <v>29866206.35239474</v>
+        <v>2986620.635239474</v>
       </c>
       <c r="N26">
-        <v>74.75180061410471</v>
-      </c>
-      <c r="O26">
-        <v>222229310.892073</v>
-      </c>
-      <c r="P26">
-        <v>83.46801339569603</v>
+        <v>64.75180061410471</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1904,25 +1907,25 @@
         <v>0.4929732854229205</v>
       </c>
       <c r="J27">
-        <v>0.627260664915144</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2916644.85107812</v>
+        <v>291664.485107812</v>
       </c>
       <c r="L27">
-        <v>64.64883549928311</v>
+        <v>54.64883549928311</v>
       </c>
       <c r="M27">
-        <v>5916435.915134708</v>
+        <v>591643.5915134709</v>
       </c>
       <c r="N27">
-        <v>67.72060164743914</v>
-      </c>
-      <c r="O27">
-        <v>9432180.664373536</v>
-      </c>
-      <c r="P27">
-        <v>69.74612110660938</v>
+        <v>57.72060164743913</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1954,25 +1957,25 @@
         <v>0.9792107028915673</v>
       </c>
       <c r="J28">
-        <v>0.1985566924676976</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>200086108.6765064</v>
+        <v>20008610.86765064</v>
       </c>
       <c r="L28">
-        <v>83.01216938038721</v>
+        <v>73.01216938038721</v>
       </c>
       <c r="M28">
-        <v>204334070.3749057</v>
+        <v>20433407.03749057</v>
       </c>
       <c r="N28">
-        <v>83.10340786320012</v>
-      </c>
-      <c r="O28">
-        <v>1029096868.181101</v>
-      </c>
-      <c r="P28">
-        <v>90.12456256527724</v>
+        <v>73.1034078632001</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2004,25 +2007,25 @@
         <v>0.9800576943173848</v>
       </c>
       <c r="J29">
-        <v>0.1178933331090841</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>11000170.08741471</v>
+        <v>1100017.008741471</v>
       </c>
       <c r="L29">
-        <v>70.41399400381367</v>
+        <v>60.41399400381367</v>
       </c>
       <c r="M29">
-        <v>11224002.57780374</v>
+        <v>1122400.257780374</v>
       </c>
       <c r="N29">
-        <v>70.50147757764228</v>
-      </c>
-      <c r="O29">
-        <v>95204726.86456674</v>
-      </c>
-      <c r="P29">
-        <v>79.78658511412161</v>
+        <v>60.50147757764228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2054,25 +2057,25 @@
         <v>0.3966775975955751</v>
       </c>
       <c r="J30">
-        <v>0.4413356044283864</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>243857808.9710482</v>
+        <v>24385780.89710482</v>
       </c>
       <c r="L30">
-        <v>83.87136667406503</v>
+        <v>73.87136667406504</v>
       </c>
       <c r="M30">
-        <v>614750644.9801297</v>
+        <v>61475064.49801297</v>
       </c>
       <c r="N30">
-        <v>87.88698993061287</v>
-      </c>
-      <c r="O30">
-        <v>1392932359.890494</v>
-      </c>
-      <c r="P30">
-        <v>91.43930027809795</v>
+        <v>77.88698993061287</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2104,25 +2107,25 @@
         <v>0.5627672150656547</v>
       </c>
       <c r="J31">
-        <v>0.597311486606904</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>221535185.2798874</v>
+        <v>22153518.52798874</v>
       </c>
       <c r="L31">
-        <v>83.45442712768353</v>
+        <v>73.45442712768354</v>
       </c>
       <c r="M31">
-        <v>393653324.7659819</v>
+        <v>39365332.4765982</v>
       </c>
       <c r="N31">
-        <v>85.95113923811626</v>
-      </c>
-      <c r="O31">
-        <v>659041946.4426751</v>
-      </c>
-      <c r="P31">
-        <v>88.18913057278137</v>
+        <v>75.95113923811627</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2154,25 +2157,25 @@
         <v>0.3348953723343016</v>
       </c>
       <c r="J32">
-        <v>0.1368616068366727</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>20220932.27063604</v>
+        <v>2022093.227063604</v>
       </c>
       <c r="L32">
-        <v>73.05801174531905</v>
+        <v>63.05801174531905</v>
       </c>
       <c r="M32">
-        <v>60379849.77126217</v>
+        <v>6037984.977126217</v>
       </c>
       <c r="N32">
-        <v>77.80892028137343</v>
-      </c>
-      <c r="O32">
-        <v>441174491.2751024</v>
-      </c>
-      <c r="P32">
-        <v>86.44610393571574</v>
+        <v>67.80892028137343</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2204,25 +2207,25 @@
         <v>0.3890030101988876</v>
       </c>
       <c r="J33">
-        <v>0.6818214155086343</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3079892.976930156</v>
+        <v>307989.2976930157</v>
       </c>
       <c r="L33">
-        <v>64.88535625482191</v>
+        <v>54.88535625482192</v>
       </c>
       <c r="M33">
-        <v>7917401.398399163</v>
+        <v>791740.1398399163</v>
       </c>
       <c r="N33">
-        <v>68.98582663468288</v>
-      </c>
-      <c r="O33">
-        <v>11612133.64425175</v>
-      </c>
-      <c r="P33">
-        <v>70.64912025491283</v>
+        <v>58.98582663468289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2254,25 +2257,25 @@
         <v>0.4179340796202418</v>
       </c>
       <c r="J34">
-        <v>0.08571908422757885</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>805549258.9317912</v>
+        <v>80554925.89317912</v>
       </c>
       <c r="L34">
-        <v>89.0609210245625</v>
+        <v>79.0609210245625</v>
       </c>
       <c r="M34">
-        <v>1927455305.065713</v>
+        <v>192745530.5065713</v>
       </c>
       <c r="N34">
-        <v>92.84984316171304</v>
-      </c>
-      <c r="O34">
-        <v>22485719748.80691</v>
-      </c>
-      <c r="P34">
-        <v>103.5190679352426</v>
+        <v>82.84984316171304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Datetime</t>
   </si>
@@ -61,6 +61,24 @@
     <t>C_after_wb [dB]</t>
   </si>
   <si>
+    <t>Theta X bar</t>
+  </si>
+  <si>
+    <t>Theta X</t>
+  </si>
+  <si>
+    <t>Theta Y bar</t>
+  </si>
+  <si>
+    <t>Theta Y</t>
+  </si>
+  <si>
+    <t>Wb x</t>
+  </si>
+  <si>
+    <t>Wb y</t>
+  </si>
+  <si>
     <t>2022-05-09  08:53:51</t>
   </si>
   <si>
@@ -215,9 +233,6 @@
   </si>
   <si>
     <t>SOPHY_20220509_085908_A28.2_S.hdf5</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -575,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,16 +642,34 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>29.2</v>
@@ -657,7 +690,7 @@
         <v>0.943670544355381</v>
       </c>
       <c r="J2">
-        <v>4.549454577533128E-208</v>
+        <v>0.8646493166056142</v>
       </c>
       <c r="K2">
         <v>202622.8257791959</v>
@@ -672,21 +705,39 @@
         <v>53.31867968502319</v>
       </c>
       <c r="O2">
-        <v>4.719637413164177E+212</v>
+        <v>248329.3009229328</v>
       </c>
       <c r="P2">
-        <v>2126.739086351784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>53.95027965943513</v>
+      </c>
+      <c r="Q2">
+        <v>29.2</v>
+      </c>
+      <c r="R2">
+        <v>29.12004113966941</v>
+      </c>
+      <c r="S2">
+        <v>18.85</v>
+      </c>
+      <c r="T2">
+        <v>19.25349704636073</v>
+      </c>
+      <c r="U2">
+        <v>0.9945198875089404</v>
+      </c>
+      <c r="V2">
+        <v>0.8694138020420846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>28.2</v>
@@ -707,7 +758,7 @@
         <v>0.3603201462020353</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6378552384059908</v>
       </c>
       <c r="K3">
         <v>21482956.92696968</v>
@@ -721,22 +772,40 @@
       <c r="N3">
         <v>77.75405512639718</v>
       </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3">
+        <v>93472398.3459225</v>
+      </c>
+      <c r="P3">
+        <v>79.70683386105115</v>
+      </c>
+      <c r="Q3">
+        <v>28.2</v>
+      </c>
+      <c r="R3">
+        <v>27.52162479563881</v>
+      </c>
+      <c r="S3">
+        <v>18.72</v>
+      </c>
+      <c r="T3">
+        <v>18.97089688620396</v>
+      </c>
+      <c r="U3">
+        <v>0.6733172567692747</v>
+      </c>
+      <c r="V3">
+        <v>0.9473323785975151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>29.2</v>
@@ -757,7 +826,7 @@
         <v>0.9274279398670143</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03954121273337643</v>
       </c>
       <c r="K4">
         <v>826866.2090602695</v>
@@ -771,22 +840,40 @@
       <c r="N4">
         <v>59.50155068902309</v>
       </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4">
+        <v>22547847.24080112</v>
+      </c>
+      <c r="P4">
+        <v>73.53105083860504</v>
+      </c>
+      <c r="Q4">
+        <v>29.2</v>
+      </c>
+      <c r="R4">
+        <v>30.91181907129084</v>
+      </c>
+      <c r="S4">
+        <v>21.28</v>
+      </c>
+      <c r="T4">
+        <v>20.3699854859449</v>
+      </c>
+      <c r="U4">
+        <v>0.08056974884744961</v>
+      </c>
+      <c r="V4">
+        <v>0.4907699639010117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>28.2</v>
@@ -807,7 +894,7 @@
         <v>0.2890611972023813</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1264534720346344</v>
       </c>
       <c r="K5">
         <v>10676549.43772054</v>
@@ -821,22 +908,40 @@
       <c r="N5">
         <v>75.67441118339195</v>
       </c>
-      <c r="O5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5">
+        <v>292085743.6234736</v>
+      </c>
+      <c r="P5">
+        <v>84.65510360065798</v>
+      </c>
+      <c r="Q5">
+        <v>28.2</v>
+      </c>
+      <c r="R5">
+        <v>29.51222517397799</v>
+      </c>
+      <c r="S5">
+        <v>18.03</v>
+      </c>
+      <c r="T5">
+        <v>18.85701826709106</v>
+      </c>
+      <c r="U5">
+        <v>0.2276345738697349</v>
+      </c>
+      <c r="V5">
+        <v>0.555510834250504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>29.2</v>
@@ -857,7 +962,7 @@
         <v>0.4688316060884716</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7041527074924014</v>
       </c>
       <c r="K6">
         <v>19663473.14568926</v>
@@ -871,22 +976,40 @@
       <c r="N6">
         <v>76.2264334762652</v>
       </c>
-      <c r="O6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6">
+        <v>59562990.46175382</v>
+      </c>
+      <c r="P6">
+        <v>77.74976494124375</v>
+      </c>
+      <c r="Q6">
+        <v>29.2</v>
+      </c>
+      <c r="R6">
+        <v>29.76048837331106</v>
+      </c>
+      <c r="S6">
+        <v>19.11</v>
+      </c>
+      <c r="T6">
+        <v>18.80349123780621</v>
+      </c>
+      <c r="U6">
+        <v>0.7633707370024503</v>
+      </c>
+      <c r="V6">
+        <v>0.9224255965815744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>29.2</v>
@@ -907,7 +1030,7 @@
         <v>0.4182233562181772</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6166413775249336</v>
       </c>
       <c r="K7">
         <v>8246891.942865268</v>
@@ -921,22 +1044,40 @@
       <c r="N7">
         <v>72.94882021249704</v>
       </c>
-      <c r="O7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7">
+        <v>31977857.14788248</v>
+      </c>
+      <c r="P7">
+        <v>75.04849358095943</v>
+      </c>
+      <c r="Q7">
+        <v>29.2</v>
+      </c>
+      <c r="R7">
+        <v>29.75172126169428</v>
+      </c>
+      <c r="S7">
+        <v>18.32</v>
+      </c>
+      <c r="T7">
+        <v>18.82803379931683</v>
+      </c>
+      <c r="U7">
+        <v>0.7697953779785772</v>
+      </c>
+      <c r="V7">
+        <v>0.8010458300544566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>28.2</v>
@@ -957,7 +1098,7 @@
         <v>0.3774353234026009</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.642062469611331</v>
       </c>
       <c r="K8">
         <v>134888889.9471006</v>
@@ -971,22 +1112,40 @@
       <c r="N8">
         <v>85.53133638240669</v>
       </c>
-      <c r="O8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8">
+        <v>556616855.2599607</v>
+      </c>
+      <c r="P8">
+        <v>87.45556353337511</v>
+      </c>
+      <c r="Q8">
+        <v>28.2</v>
+      </c>
+      <c r="R8">
+        <v>28.86733563993453</v>
+      </c>
+      <c r="S8">
+        <v>19.16</v>
+      </c>
+      <c r="T8">
+        <v>18.89512937891049</v>
+      </c>
+      <c r="U8">
+        <v>0.6819698863634402</v>
+      </c>
+      <c r="V8">
+        <v>0.9414821423202233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>29.2</v>
@@ -1007,7 +1166,7 @@
         <v>0.4099623680523841</v>
       </c>
       <c r="J9">
-        <v>1.571829703214146E-185</v>
+        <v>0.8784268579228283</v>
       </c>
       <c r="K9">
         <v>11424325.63393978</v>
@@ -1022,21 +1181,39 @@
         <v>74.45086580479077</v>
       </c>
       <c r="O9">
-        <v>1.772887136824913E+192</v>
+        <v>31723491.11338871</v>
       </c>
       <c r="P9">
-        <v>1922.486810890051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>75.01380974605573</v>
+      </c>
+      <c r="Q9">
+        <v>29.2</v>
+      </c>
+      <c r="R9">
+        <v>29.35075223717412</v>
+      </c>
+      <c r="S9">
+        <v>18.4</v>
+      </c>
+      <c r="T9">
+        <v>18.75788874338016</v>
+      </c>
+      <c r="U9">
+        <v>0.9806561985871564</v>
+      </c>
+      <c r="V9">
+        <v>0.8957541482819247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>29.2</v>
@@ -1057,7 +1234,7 @@
         <v>0.4419338497535122</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3283609460016541</v>
       </c>
       <c r="K10">
         <v>18696206.25727214</v>
@@ -1071,22 +1248,40 @@
       <c r="N10">
         <v>76.26396223108787</v>
       </c>
-      <c r="O10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="O10">
+        <v>128838222.6240059</v>
+      </c>
+      <c r="P10">
+        <v>81.10044724918914</v>
+      </c>
+      <c r="Q10">
+        <v>29.2</v>
+      </c>
+      <c r="R10">
+        <v>30.33699028530697</v>
+      </c>
+      <c r="S10">
+        <v>18.84</v>
+      </c>
+      <c r="T10">
+        <v>18.89412441585073</v>
+      </c>
+      <c r="U10">
+        <v>0.3291887619871046</v>
+      </c>
+      <c r="V10">
+        <v>0.9974852847938868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>30.2</v>
@@ -1107,7 +1302,7 @@
         <v>0.326268644896119</v>
       </c>
       <c r="J11">
-        <v>7.303309501697897E-231</v>
+        <v>0.8509350628661528</v>
       </c>
       <c r="K11">
         <v>637939.8134084996</v>
@@ -1122,21 +1317,39 @@
         <v>62.91204367853268</v>
       </c>
       <c r="O11">
-        <v>2.677223707693581E+236</v>
+        <v>2297777.374070307</v>
       </c>
       <c r="P11">
-        <v>2364.276846621685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>63.61307948679317</v>
+      </c>
+      <c r="Q11">
+        <v>30.2</v>
+      </c>
+      <c r="R11">
+        <v>29.78163338571719</v>
+      </c>
+      <c r="S11">
+        <v>18.74</v>
+      </c>
+      <c r="T11">
+        <v>18.85302328807143</v>
+      </c>
+      <c r="U11">
+        <v>0.8603294327746922</v>
+      </c>
+      <c r="V11">
+        <v>0.9890804968996109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>28.2</v>
@@ -1157,7 +1370,7 @@
         <v>0.3562989270437258</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1156736969754061</v>
       </c>
       <c r="K12">
         <v>127124156.0624527</v>
@@ -1171,22 +1384,40 @@
       <c r="N12">
         <v>85.52413568273614</v>
       </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12">
+        <v>3084458648.224467</v>
+      </c>
+      <c r="P12">
+        <v>94.89178952252777</v>
+      </c>
+      <c r="Q12">
+        <v>28.2</v>
+      </c>
+      <c r="R12">
+        <v>29.7835519935558</v>
+      </c>
+      <c r="S12">
+        <v>18.84</v>
+      </c>
+      <c r="T12">
+        <v>18.88384896759857</v>
+      </c>
+      <c r="U12">
+        <v>0.1158650173701231</v>
+      </c>
+      <c r="V12">
+        <v>0.9983487648035659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>28.2</v>
@@ -1207,7 +1438,7 @@
         <v>0.3646211489021747</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1156736969754061</v>
       </c>
       <c r="K13">
         <v>45196307.41498157</v>
@@ -1221,22 +1452,40 @@
       <c r="N13">
         <v>80.93261098780515</v>
       </c>
-      <c r="O13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13">
+        <v>1071584647.199434</v>
+      </c>
+      <c r="P13">
+        <v>90.30026482759678</v>
+      </c>
+      <c r="Q13">
+        <v>28.2</v>
+      </c>
+      <c r="R13">
+        <v>29.7835519935558</v>
+      </c>
+      <c r="S13">
+        <v>18.84</v>
+      </c>
+      <c r="T13">
+        <v>18.88384896759857</v>
+      </c>
+      <c r="U13">
+        <v>0.1158650173701231</v>
+      </c>
+      <c r="V13">
+        <v>0.9983487648035659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>29.2</v>
@@ -1257,7 +1506,7 @@
         <v>0.5049464327702138</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3447516775546519</v>
       </c>
       <c r="K14">
         <v>8114428.289970525</v>
@@ -1271,22 +1520,40 @@
       <c r="N14">
         <v>72.06012618152141</v>
       </c>
-      <c r="O14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14">
+        <v>46612911.46583463</v>
+      </c>
+      <c r="P14">
+        <v>76.68506230030994</v>
+      </c>
+      <c r="Q14">
+        <v>29.2</v>
+      </c>
+      <c r="R14">
+        <v>30.0469309968044</v>
+      </c>
+      <c r="S14">
+        <v>18</v>
+      </c>
+      <c r="T14">
+        <v>18.72229570401141</v>
+      </c>
+      <c r="U14">
+        <v>0.539821365300043</v>
+      </c>
+      <c r="V14">
+        <v>0.6386402979123146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>30.2</v>
@@ -1307,7 +1574,7 @@
         <v>0.04721785530522291</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01545799205901525</v>
       </c>
       <c r="K15">
         <v>1741367.120135752</v>
@@ -1321,22 +1588,40 @@
       <c r="N15">
         <v>75.66784083024149</v>
       </c>
-      <c r="O15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15">
+        <v>2385783348.784736</v>
+      </c>
+      <c r="P15">
+        <v>93.77631003165297</v>
+      </c>
+      <c r="Q15">
+        <v>30.2</v>
+      </c>
+      <c r="R15">
+        <v>32.18058026052951</v>
+      </c>
+      <c r="S15">
+        <v>20.31</v>
+      </c>
+      <c r="T15">
+        <v>19.34641636092758</v>
+      </c>
+      <c r="U15">
+        <v>0.0343352316584843</v>
+      </c>
+      <c r="V15">
+        <v>0.4502078859629755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>28.2</v>
@@ -1357,7 +1642,7 @@
         <v>0.213803913180315</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01213154155399719</v>
       </c>
       <c r="K16">
         <v>69425739.50733308</v>
@@ -1371,22 +1656,40 @@
       <c r="N16">
         <v>85.11504864764177</v>
       </c>
-      <c r="O16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="O16">
+        <v>26766332871.14582</v>
+      </c>
+      <c r="P16">
+        <v>104.2758887462664</v>
+      </c>
+      <c r="Q16">
+        <v>28.2</v>
+      </c>
+      <c r="R16">
+        <v>30.0878988085682</v>
+      </c>
+      <c r="S16">
+        <v>20.13</v>
+      </c>
+      <c r="T16">
+        <v>18.87742028650461</v>
+      </c>
+      <c r="U16">
+        <v>0.0467276522703118</v>
+      </c>
+      <c r="V16">
+        <v>0.2596223213573456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>28.2</v>
@@ -1407,7 +1710,7 @@
         <v>0.4643603380715843</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04582089407009806</v>
       </c>
       <c r="K17">
         <v>111741492.1314345</v>
@@ -1421,22 +1724,40 @@
       <c r="N17">
         <v>83.81359347674896</v>
       </c>
-      <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17">
+        <v>5251650171.111811</v>
+      </c>
+      <c r="P17">
+        <v>97.20295788663469</v>
+      </c>
+      <c r="Q17">
+        <v>28.2</v>
+      </c>
+      <c r="R17">
+        <v>30.08279164371014</v>
+      </c>
+      <c r="S17">
+        <v>19.33</v>
+      </c>
+      <c r="T17">
+        <v>19.12492296706349</v>
+      </c>
+      <c r="U17">
+        <v>0.04750752348830987</v>
+      </c>
+      <c r="V17">
+        <v>0.9644976354402719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>29.2</v>
@@ -1457,7 +1778,7 @@
         <v>0.4391901968824491</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3733406698051143</v>
       </c>
       <c r="K18">
         <v>24168115.63580678</v>
@@ -1471,22 +1792,40 @@
       <c r="N18">
         <v>77.40590152504872</v>
       </c>
-      <c r="O18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="O18">
+        <v>147395712.3003107</v>
+      </c>
+      <c r="P18">
+        <v>81.68484850202822</v>
+      </c>
+      <c r="Q18">
+        <v>29.2</v>
+      </c>
+      <c r="R18">
+        <v>29.53097969787205</v>
+      </c>
+      <c r="S18">
+        <v>20.1</v>
+      </c>
+      <c r="T18">
+        <v>19.08178271877957</v>
+      </c>
+      <c r="U18">
+        <v>0.9101400371011347</v>
+      </c>
+      <c r="V18">
+        <v>0.410201347689563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>29.2</v>
@@ -1507,7 +1846,7 @@
         <v>0.4691419060383602</v>
       </c>
       <c r="J19">
-        <v>1.118798652121479E-206</v>
+        <v>0.8654932042826784</v>
       </c>
       <c r="K19">
         <v>61956961.6945747</v>
@@ -1522,21 +1861,39 @@
         <v>81.20785884279709</v>
       </c>
       <c r="O19">
-        <v>1.180412907636854E+214</v>
+        <v>152588646.9675357</v>
       </c>
       <c r="P19">
-        <v>2140.720339497985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>81.8352222206728</v>
+      </c>
+      <c r="Q19">
+        <v>29.2</v>
+      </c>
+      <c r="R19">
+        <v>29.56504109744098</v>
+      </c>
+      <c r="S19">
+        <v>19.3</v>
+      </c>
+      <c r="T19">
+        <v>19.11341673579931</v>
+      </c>
+      <c r="U19">
+        <v>0.8917820654602556</v>
+      </c>
+      <c r="V19">
+        <v>0.9705209801858827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>30.2</v>
@@ -1557,7 +1914,7 @@
         <v>0.6160169839417675</v>
       </c>
       <c r="J20">
-        <v>4.198309820547319E-279</v>
+        <v>0.8226243094133839</v>
       </c>
       <c r="K20">
         <v>483049.719882523</v>
@@ -1572,21 +1929,39 @@
         <v>58.94399148523415</v>
       </c>
       <c r="O20">
-        <v>1.86777545403263E+284</v>
+        <v>953229.7965804363</v>
       </c>
       <c r="P20">
-        <v>2842.713246636841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>59.79197609302</v>
+      </c>
+      <c r="Q20">
+        <v>30.2</v>
+      </c>
+      <c r="R20">
+        <v>30.59914310978454</v>
+      </c>
+      <c r="S20">
+        <v>19.31</v>
+      </c>
+      <c r="T20">
+        <v>19.0495068086233</v>
+      </c>
+      <c r="U20">
+        <v>0.872029158650936</v>
+      </c>
+      <c r="V20">
+        <v>0.9433449572787412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>28.2</v>
@@ -1607,7 +1982,7 @@
         <v>0.4199790252993172</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3528803102875575</v>
       </c>
       <c r="K21">
         <v>40560364.36003463</v>
@@ -1621,22 +1996,40 @@
       <c r="N21">
         <v>79.848742463848</v>
       </c>
-      <c r="O21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="O21">
+        <v>273682368.549022</v>
+      </c>
+      <c r="P21">
+        <v>84.37246819739265</v>
+      </c>
+      <c r="Q21">
+        <v>28.2</v>
+      </c>
+      <c r="R21">
+        <v>29.18860906737109</v>
+      </c>
+      <c r="S21">
+        <v>18.56</v>
+      </c>
+      <c r="T21">
+        <v>19.04429476895842</v>
+      </c>
+      <c r="U21">
+        <v>0.4316947477958291</v>
+      </c>
+      <c r="V21">
+        <v>0.8174301681670052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>29.2</v>
@@ -1657,7 +2050,7 @@
         <v>0.2830293005230919</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.04818022040244065</v>
       </c>
       <c r="K22">
         <v>6420670.632567608</v>
@@ -1671,22 +2064,40 @@
       <c r="N22">
         <v>73.55748994001203</v>
       </c>
-      <c r="O22" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="O22">
+        <v>470847437.9782792</v>
+      </c>
+      <c r="P22">
+        <v>86.72880211635997</v>
+      </c>
+      <c r="Q22">
+        <v>29.2</v>
+      </c>
+      <c r="R22">
+        <v>30.14168712363436</v>
+      </c>
+      <c r="S22">
+        <v>20.78</v>
+      </c>
+      <c r="T22">
+        <v>19.15464744092768</v>
+      </c>
+      <c r="U22">
+        <v>0.4666441627061219</v>
+      </c>
+      <c r="V22">
+        <v>0.103248308353496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>30.2</v>
@@ -1707,7 +2118,7 @@
         <v>0.4059991517369718</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7270204998301301</v>
       </c>
       <c r="K23">
         <v>697153.5268366549</v>
@@ -1721,22 +2132,40 @@
       <c r="N23">
         <v>62.3480330256922</v>
       </c>
-      <c r="O23" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="O23">
+        <v>2361873.566733419</v>
+      </c>
+      <c r="P23">
+        <v>63.73256645716255</v>
+      </c>
+      <c r="Q23">
+        <v>30.2</v>
+      </c>
+      <c r="R23">
+        <v>29.61842582062017</v>
+      </c>
+      <c r="S23">
+        <v>18.79</v>
+      </c>
+      <c r="T23">
+        <v>18.9707839441742</v>
+      </c>
+      <c r="U23">
+        <v>0.7477328583570422</v>
+      </c>
+      <c r="V23">
+        <v>0.9722997882259415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>28.2</v>
@@ -1757,7 +2186,7 @@
         <v>0.4528680836640006</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1569458169720588</v>
       </c>
       <c r="K24">
         <v>44393411.47351074</v>
@@ -1771,22 +2200,40 @@
       <c r="N24">
         <v>79.9134680585306</v>
       </c>
-      <c r="O24" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="O24">
+        <v>624592925.3937967</v>
+      </c>
+      <c r="P24">
+        <v>87.95597060778208</v>
+      </c>
+      <c r="Q24">
+        <v>28.2</v>
+      </c>
+      <c r="R24">
+        <v>29.65533405439113</v>
+      </c>
+      <c r="S24">
+        <v>19.06</v>
+      </c>
+      <c r="T24">
+        <v>18.86879505066807</v>
+      </c>
+      <c r="U24">
+        <v>0.1619558234095496</v>
+      </c>
+      <c r="V24">
+        <v>0.9690655986798229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>29.2</v>
@@ -1807,7 +2254,7 @@
         <v>0.5831417290967718</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4439636840240793</v>
       </c>
       <c r="K25">
         <v>16692908.98849558</v>
@@ -1821,22 +2268,40 @@
       <c r="N25">
         <v>74.56757905313837</v>
       </c>
-      <c r="O25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="O25">
+        <v>64477836.81689559</v>
+      </c>
+      <c r="P25">
+        <v>78.09410458787039</v>
+      </c>
+      <c r="Q25">
+        <v>29.2</v>
+      </c>
+      <c r="R25">
+        <v>30.0423661590643</v>
+      </c>
+      <c r="S25">
+        <v>18.79</v>
+      </c>
+      <c r="T25">
+        <v>19.27493539598824</v>
+      </c>
+      <c r="U25">
+        <v>0.5434111673809942</v>
+      </c>
+      <c r="V25">
+        <v>0.8169940381678047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>29.2</v>
@@ -1857,7 +2322,7 @@
         <v>0.5831417290967718</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.1343936415610785</v>
       </c>
       <c r="K26">
         <v>1741623.121389646</v>
@@ -1871,22 +2336,40 @@
       <c r="N26">
         <v>64.75180061410471</v>
       </c>
-      <c r="O26" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="O26">
+        <v>22222931.0892073</v>
+      </c>
+      <c r="P26">
+        <v>73.46801339569605</v>
+      </c>
+      <c r="Q26">
+        <v>29.2</v>
+      </c>
+      <c r="R26">
+        <v>30.0423661590643</v>
+      </c>
+      <c r="S26">
+        <v>18</v>
+      </c>
+      <c r="T26">
+        <v>19.27493539598824</v>
+      </c>
+      <c r="U26">
+        <v>0.5434111673809942</v>
+      </c>
+      <c r="V26">
+        <v>0.2473148319877148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>30.2</v>
@@ -1907,7 +2390,7 @@
         <v>0.4929732854229205</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.627260664915144</v>
       </c>
       <c r="K27">
         <v>291664.485107812</v>
@@ -1921,22 +2404,40 @@
       <c r="N27">
         <v>57.72060164743913</v>
       </c>
-      <c r="O27" t="s">
-        <v>67</v>
-      </c>
-      <c r="P27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="O27">
+        <v>943218.0664373535</v>
+      </c>
+      <c r="P27">
+        <v>59.74612110660938</v>
+      </c>
+      <c r="Q27">
+        <v>30.2</v>
+      </c>
+      <c r="R27">
+        <v>30.65426112643307</v>
+      </c>
+      <c r="S27">
+        <v>18.88</v>
+      </c>
+      <c r="T27">
+        <v>19.45989306269647</v>
+      </c>
+      <c r="U27">
+        <v>0.8374767103144014</v>
+      </c>
+      <c r="V27">
+        <v>0.7489887864220854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D28">
         <v>29.2</v>
@@ -1957,7 +2458,7 @@
         <v>0.9792107028915673</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.1985566924676976</v>
       </c>
       <c r="K28">
         <v>20008610.86765064</v>
@@ -1971,22 +2472,40 @@
       <c r="N28">
         <v>73.1034078632001</v>
       </c>
-      <c r="O28" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="O28">
+        <v>102909686.8181102</v>
+      </c>
+      <c r="P28">
+        <v>80.12456256527724</v>
+      </c>
+      <c r="Q28">
+        <v>29.2</v>
+      </c>
+      <c r="R28">
+        <v>27.82977861277137</v>
+      </c>
+      <c r="S28">
+        <v>18.9</v>
+      </c>
+      <c r="T28">
+        <v>18.95860546169963</v>
+      </c>
+      <c r="U28">
+        <v>0.1991437097705727</v>
+      </c>
+      <c r="V28">
+        <v>0.997052293022203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D29">
         <v>29.2</v>
@@ -2007,7 +2526,7 @@
         <v>0.9800576943173848</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.1178933331090841</v>
       </c>
       <c r="K29">
         <v>1100017.008741471</v>
@@ -2021,22 +2540,40 @@
       <c r="N29">
         <v>60.50147757764228</v>
       </c>
-      <c r="O29" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="O29">
+        <v>9520472.686456675</v>
+      </c>
+      <c r="P29">
+        <v>69.78658511412161</v>
+      </c>
+      <c r="Q29">
+        <v>29.2</v>
+      </c>
+      <c r="R29">
+        <v>27.87222558540253</v>
+      </c>
+      <c r="S29">
+        <v>18.11</v>
+      </c>
+      <c r="T29">
+        <v>18.96115269154546</v>
+      </c>
+      <c r="U29">
+        <v>0.2197430431834811</v>
+      </c>
+      <c r="V29">
+        <v>0.5365054174235931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>28.2</v>
@@ -2057,7 +2594,7 @@
         <v>0.3966775975955751</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.4413356044283864</v>
       </c>
       <c r="K30">
         <v>24385780.89710482</v>
@@ -2071,22 +2608,40 @@
       <c r="N30">
         <v>77.88698993061287</v>
       </c>
-      <c r="O30" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="O30">
+        <v>139293235.9890494</v>
+      </c>
+      <c r="P30">
+        <v>81.43930027809795</v>
+      </c>
+      <c r="Q30">
+        <v>28.2</v>
+      </c>
+      <c r="R30">
+        <v>29.16229718344745</v>
+      </c>
+      <c r="S30">
+        <v>19.21</v>
+      </c>
+      <c r="T30">
+        <v>19.37010893308593</v>
+      </c>
+      <c r="U30">
+        <v>0.4511676153855366</v>
+      </c>
+      <c r="V30">
+        <v>0.9782076314392636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>29.2</v>
@@ -2107,7 +2662,7 @@
         <v>0.5627672150656547</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.597311486606904</v>
       </c>
       <c r="K31">
         <v>22153518.52798874</v>
@@ -2121,22 +2676,40 @@
       <c r="N31">
         <v>75.95113923811627</v>
       </c>
-      <c r="O31" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="O31">
+        <v>65904194.64426751</v>
+      </c>
+      <c r="P31">
+        <v>78.18913057278137</v>
+      </c>
+      <c r="Q31">
+        <v>29.2</v>
+      </c>
+      <c r="R31">
+        <v>29.81826328868302</v>
+      </c>
+      <c r="S31">
+        <v>19.01</v>
+      </c>
+      <c r="T31">
+        <v>19.47615455248197</v>
+      </c>
+      <c r="U31">
+        <v>0.7199699530108441</v>
+      </c>
+      <c r="V31">
+        <v>0.8296339091777449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>29.2</v>
@@ -2157,7 +2730,7 @@
         <v>0.3348953723343016</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.1368616068366727</v>
       </c>
       <c r="K32">
         <v>2022093.227063604</v>
@@ -2171,22 +2744,40 @@
       <c r="N32">
         <v>67.80892028137343</v>
       </c>
-      <c r="O32" t="s">
-        <v>67</v>
-      </c>
-      <c r="P32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="O32">
+        <v>44117449.12751024</v>
+      </c>
+      <c r="P32">
+        <v>76.44610393571573</v>
+      </c>
+      <c r="Q32">
+        <v>29.2</v>
+      </c>
+      <c r="R32">
+        <v>29.62250463025991</v>
+      </c>
+      <c r="S32">
+        <v>18.2</v>
+      </c>
+      <c r="T32">
+        <v>19.66128684309949</v>
+      </c>
+      <c r="U32">
+        <v>0.8577603021385531</v>
+      </c>
+      <c r="V32">
+        <v>0.1595569374048341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>30.2</v>
@@ -2207,7 +2798,7 @@
         <v>0.3890030101988876</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.6818214155086343</v>
       </c>
       <c r="K33">
         <v>307989.2976930157</v>
@@ -2221,22 +2812,40 @@
       <c r="N33">
         <v>58.98582663468289</v>
       </c>
-      <c r="O33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="O33">
+        <v>1161213.364425175</v>
+      </c>
+      <c r="P33">
+        <v>60.64912025491282</v>
+      </c>
+      <c r="Q33">
+        <v>30.2</v>
+      </c>
+      <c r="R33">
+        <v>29.58246511774142</v>
+      </c>
+      <c r="S33">
+        <v>19.46</v>
+      </c>
+      <c r="T33">
+        <v>19.71345778411158</v>
+      </c>
+      <c r="U33">
+        <v>0.720527206382177</v>
+      </c>
+      <c r="V33">
+        <v>0.9462812916282681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>28.2</v>
@@ -2257,7 +2866,7 @@
         <v>0.4179340796202418</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.08571908422757885</v>
       </c>
       <c r="K34">
         <v>80554925.89317912</v>
@@ -2271,11 +2880,29 @@
       <c r="N34">
         <v>82.84984316171304</v>
       </c>
-      <c r="O34" t="s">
-        <v>67</v>
-      </c>
-      <c r="P34" t="s">
-        <v>67</v>
+      <c r="O34">
+        <v>2248571974.880692</v>
+      </c>
+      <c r="P34">
+        <v>93.51906793524257</v>
+      </c>
+      <c r="Q34">
+        <v>28.2</v>
+      </c>
+      <c r="R34">
+        <v>29.5644162557536</v>
+      </c>
+      <c r="S34">
+        <v>20.64</v>
+      </c>
+      <c r="T34">
+        <v>19.64169446306543</v>
+      </c>
+      <c r="U34">
+        <v>0.201879568685076</v>
+      </c>
+      <c r="V34">
+        <v>0.424605049366324</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Datetime</t>
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -590,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,2248 +666,2452 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
+        <v>168.75</v>
+      </c>
+      <c r="E2">
+        <v>-3.38</v>
+      </c>
+      <c r="F2">
         <v>29.2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>210</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>211.7877490895764</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.000100712883223782</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-39.96914970805686</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.943670544355381</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.8646493166056142</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>202622.8257791959</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>53.0668836773485</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>214717.7603361638</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>53.31867968502319</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>248329.3009229328</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>53.95027965943513</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>29.2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>29.12004113966941</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>18.85</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>19.25349704636073</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.9945198875089404</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.8694138020420846</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
+        <v>176.01</v>
+      </c>
+      <c r="E3">
+        <v>9.18</v>
+      </c>
+      <c r="F3">
         <v>28.2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>225</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>217.4986984850773</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.009599915444001642</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-20.17732592206809</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.3603201462020353</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.6378552384059908</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>21482956.92696968</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>73.32094057692547</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>59621858.93131813</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>77.75405512639718</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>93472398.3459225</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>79.70683386105115</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>28.2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>27.52162479563881</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>18.72</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>18.97089688620396</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.6733172567692747</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.9473323785975151</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4">
+        <v>16.5</v>
+      </c>
+      <c r="E4">
+        <v>-21.09</v>
+      </c>
+      <c r="F4">
         <v>29.2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>210</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>207.9620776649494</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.0004420777464672564</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-33.54501346278744</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9274279398670143</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.03954121273337643</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>826866.2090602695</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>59.17435244295706</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>891569.2244281917</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>59.50155068902309</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>22547847.24080112</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>73.53105083860504</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>29.2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>30.91181907129084</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>21.28</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>20.3699854859449</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.08056974884744961</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.4907699639010117</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
+        <v>0.44</v>
+      </c>
+      <c r="E5">
+        <v>-4.27</v>
+      </c>
+      <c r="F5">
         <v>28.2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>225</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>216.7285692403525</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.004839118526462466</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-23.1523374041293</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.2890611972023813</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.1264534720346344</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>10676549.43772054</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>70.28430915399301</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>36935256.41300631</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>75.67441118339195</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>292085743.6234736</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>84.65510360065798</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>28.2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>29.51222517397799</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>18.03</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>18.85701826709106</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.2276345738697349</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.555510834250504</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6">
+        <v>-0.58</v>
+      </c>
+      <c r="E6">
+        <v>-5.82</v>
+      </c>
+      <c r="F6">
         <v>29.2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>225</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>218.5379702673735</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.008620900029101108</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>-20.64447391104814</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.4688316060884716</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.7041527074924014</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>19663473.14568926</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>72.93660229406028</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>41941440.99998804</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>76.2264334762652</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>59562990.46175382</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>77.74976494124375</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>29.2</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>29.76048837331106</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>19.11</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>18.80349123780621</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.7633707370024503</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.9224255965815744</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7">
+        <v>-1.36</v>
+      </c>
+      <c r="E7">
+        <v>-5.43</v>
+      </c>
+      <c r="F7">
         <v>29.2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>225</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>218.0678540203102</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.003646898742289544</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-24.38076294891702</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.4182233562181772</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.6166413775249336</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>8246891.942865268</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>69.16290304139366</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>19718869.8819658</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>72.94882021249704</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>31977857.14788248</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>75.04849358095943</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>29.2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>29.75172126169428</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>18.32</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>18.82803379931683</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.7697953779785772</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.8010458300544566</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
+        <v>0.63</v>
+      </c>
+      <c r="E8">
+        <v>0.76</v>
+      </c>
+      <c r="F8">
         <v>28.2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>210</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>217.3288046406329</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.06046541187955666</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-12.18492984444961</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.3774353234026009</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.642062469611331</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>134888889.9471006</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>81.29976180706981</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>357382792.7155031</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>85.53133638240669</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>556616855.2599607</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>87.45556353337511</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>28.2</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>28.86733563993453</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>19.16</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>18.89512937891049</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.6819698863634402</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.9414821423202233</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9">
+        <v>-1.5</v>
+      </c>
+      <c r="E9">
+        <v>-2.29</v>
+      </c>
+      <c r="F9">
         <v>29.2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>225</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>217.9889796592091</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.00505932314505039</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-22.95907580794971</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.4099623680523841</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.8784268579228283</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>11424325.63393978</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>70.57830573546914</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>27866766.62107681</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>74.45086580479077</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>31723491.11338871</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>75.01380974605573</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>29.2</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>29.35075223717412</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>18.4</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>18.75788874338016</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.9806561985871564</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.8957541482819247</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10">
+        <v>-2.27</v>
+      </c>
+      <c r="E10">
+        <v>-9.51</v>
+      </c>
+      <c r="F10">
         <v>29.2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>225</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>218.2906927932208</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.008234033200340826</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-20.84387386221731</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.4419338497535122</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.3283609460016541</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>18696206.25727214</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>72.71753490564157</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>42305440.66199029</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>76.26396223108787</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>128838222.6240059</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>81.10044724918914</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>29.2</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>30.33699028530697</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>18.84</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>18.89412441585073</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.3291887619871046</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.9974852847938868</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11">
+        <v>-1.63</v>
+      </c>
+      <c r="E11">
+        <v>-5.19</v>
+      </c>
+      <c r="F11">
         <v>30.2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>210</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>217.8576003830387</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.0002831971275905792</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-35.47911155918312</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.326268644896119</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.8509350628661528</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>637939.8134084996</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>58.04779707032188</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1955259.33425694</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>62.91204367853268</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>2297777.374070307</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>63.61307948679317</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>30.2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>29.78163338571719</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>18.74</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>18.85302328807143</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.8603294327746922</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.9890804968996109</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12">
+        <v>-1.99</v>
+      </c>
+      <c r="E12">
+        <v>-5.04</v>
+      </c>
+      <c r="F12">
         <v>28.2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>210</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>217.5424256793808</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.05676128460406523</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>-12.45947784283206</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.3562989270437258</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.1156736969754061</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>127124156.0624527</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>81.04228082795018</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>356790735.0078878</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>85.52413568273614</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>3084458648.224467</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>94.89178952252777</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>28.2</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>29.7835519935558</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>18.84</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>18.88384896759857</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.1158650173701231</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.9983487648035659</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13">
+        <v>-1.99</v>
+      </c>
+      <c r="E13">
+        <v>-5.04</v>
+      </c>
+      <c r="F13">
         <v>28.2</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>225</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>217.5424256793808</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.02018027531269729</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>-16.9507291312539</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.3646211489021747</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.1156736969754061</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>45196307.41498157</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>76.55102953952833</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>123954157.7636448</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>80.93261098780515</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>1071584647.199434</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>90.30026482759678</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>28.2</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>29.7835519935558</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>18.84</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>18.88384896759857</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.1158650173701231</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.9983487648035659</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14">
+        <v>-0.62</v>
+      </c>
+      <c r="E14">
+        <v>-7.78</v>
+      </c>
+      <c r="F14">
         <v>29.2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>225</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>218.8626492715362</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.003536480916300253</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>-24.51428681132462</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.5049464327702138</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.3447516775546519</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>8114428.289970525</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>69.09257926595076</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>16069879.42355296</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>72.06012618152141</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>46612911.46583463</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>76.68506230030994</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>29.2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>30.0469309968044</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>18</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>18.72229570401141</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.539821365300043</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.6386402979123146</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15">
+        <v>-179.5</v>
+      </c>
+      <c r="E15">
+        <v>-25.03</v>
+      </c>
+      <c r="F15">
         <v>30.2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>210</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>222.9728831456896</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.0007045018565370623</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>-31.5211785807948</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.04721785530522291</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.01545799205901525</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1741367.120135752</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>62.40890340009549</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>36879420.06004525</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>75.66784083024149</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>2385783348.784736</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>93.77631003165297</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>30.2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>32.18058026052951</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>20.31</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>19.34641636092758</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.0343352316584843</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.4502078859629755</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16">
+        <v>-0.39</v>
+      </c>
+      <c r="E16">
+        <v>-8.17</v>
+      </c>
+      <c r="F16">
         <v>28.2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>210</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>219.2217740030432</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.03005977759474662</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>-15.22014236980368</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.213803913180315</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.01213154155399719</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>69425739.50733308</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>78.41520514453892</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>324716879.4744265</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>85.11504864764177</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>26766332871.14582</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>104.2758887462664</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>28.2</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>30.0878988085682</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>20.13</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>18.87742028650461</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.0467276522703118</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.2596223213573456</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17">
+        <v>0.08</v>
+      </c>
+      <c r="E17">
+        <v>-8.24</v>
+      </c>
+      <c r="F17">
         <v>28.2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>210</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>216.50277485892</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.05085815470312965</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-12.93639401470314</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.4643603380715843</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.04582089407009806</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>111741492.1314345</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>80.48214466380881</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>240635306.1837266</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>83.81359347674896</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>5251650171.111811</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>97.20295788663469</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>28.2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>30.08279164371014</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>19.33</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>19.12492296706349</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.04750752348830987</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.9644976354402719</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18">
+        <v>0.85</v>
+      </c>
+      <c r="E18">
+        <v>-4.61</v>
+      </c>
+      <c r="F18">
         <v>29.2</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>210</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>216.7348423780656</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.01095286798336594</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>-19.60472146918505</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.4391901968824491</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.3733406698051143</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>24168115.63580678</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>73.83242790214274</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>55028813.95659992</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>77.40590152504872</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>147395712.3003107</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>81.68484850202822</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>29.2</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>29.53097969787205</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>20.1</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>19.08178271877957</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.9101400371011347</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.410201347689563</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19">
+        <v>1.31</v>
+      </c>
+      <c r="E19">
+        <v>-5.03</v>
+      </c>
+      <c r="F19">
         <v>29.2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>210</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>216.4592070265324</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.02822187472678962</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>-15.49414140246559</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.4691419060383602</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.8654932042826784</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>61956961.6945747</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>77.92090112256408</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>132064437.0010908</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>81.20785884279709</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>152588646.9675357</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>81.8352222206728</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>29.2</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>29.56504109744098</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>19.3</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>19.11341673579931</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0.8917820654602556</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.9705209801858827</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20">
+        <v>-1.16</v>
+      </c>
+      <c r="E20">
+        <v>-11.98</v>
+      </c>
+      <c r="F20">
         <v>30.2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>225</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>219.832118321762</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.0002068365357610638</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-36.84372744698329</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.6160169839417675</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.8226243094133839</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>483049.719882523</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>56.83991834601004</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>784150.0031242418</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>58.94399148523415</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>953229.7965804363</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>59.79197609302</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>30.2</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>30.59914310978454</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>19.31</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>19.0495068086233</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>0.872029158650936</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.9433449572787412</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21">
+        <v>-0.55</v>
+      </c>
+      <c r="E21">
+        <v>-1.02</v>
+      </c>
+      <c r="F21">
         <v>28.2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>225</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>218.0845302550781</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.01793091315196979</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-17.46397592938465</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.4199790252993172</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.3528803102875575</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>40560364.36003463</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>76.08101847677392</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>96577119.13381255</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>79.848742463848</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>273682368.549022</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>84.37246819739265</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>28.2</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>29.18860906737109</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>18.56</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>19.04429476895842</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>0.4316947477958291</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.8174301681670052</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22">
+        <v>-2.31</v>
+      </c>
+      <c r="E22">
+        <v>-7.91</v>
+      </c>
+      <c r="F22">
         <v>29.2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>210</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>218.3414053028771</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.00282511406435971</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>-25.48964012792526</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.2830293005230919</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.04818022040244065</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>6420670.632567608</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>68.07580392058335</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>22685533.337718</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>73.55748994001203</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>470847437.9782792</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>86.72880211635997</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>29.2</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>30.14168712363436</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>20.78</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>19.15464744092768</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>0.4666441627061219</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.103248308353496</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23">
+        <v>-1.35</v>
+      </c>
+      <c r="E23">
+        <v>-4.45</v>
+      </c>
+      <c r="F23">
         <v>30.2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>225</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>217.9508931768196</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.0003089539956680334</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-35.10106183730331</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.4059991517369718</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.7270204998301301</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>697153.5268366549</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>58.43328428766274</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>1717130.501022102</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>62.3480330256922</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>2361873.566733419</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>63.73256645716255</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>30.2</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>29.61842582062017</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>18.79</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>18.9707839441742</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.7477328583570422</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.9722997882259415</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24">
+        <v>-0.73</v>
+      </c>
+      <c r="E24">
+        <v>-5.17</v>
+      </c>
+      <c r="F24">
         <v>28.2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>225</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>218.3918602158127</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.01951518758096478</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>-17.09627269902262</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.4528680836640006</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.1569458169720588</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>44393411.47351074</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>76.47318520271868</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>98027246.9508976</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>79.9134680585306</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>624592925.3937967</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>87.95597060778208</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>28.2</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>29.65533405439113</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>19.06</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>18.86879505066807</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>0.1619558234095496</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.9690655986798229</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25">
+        <v>-0.46</v>
+      </c>
+      <c r="E25">
+        <v>-7.82</v>
+      </c>
+      <c r="F25">
         <v>29.2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>225</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>219.5474509009471</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.007184861975230824</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-21.43581570462447</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.5831417290967718</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.4439636840240793</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>16692908.98849558</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>72.22532025568742</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>28625817.97113238</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>74.56757905313837</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>64477836.81689559</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>78.09410458787039</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>29.2</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>30.0423661590643</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>18.79</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>19.27493539598824</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>0.5434111673809942</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.8169940381678047</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26">
+        <v>-0.46</v>
+      </c>
+      <c r="E26">
+        <v>-7.82</v>
+      </c>
+      <c r="F26">
         <v>29.2</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>225</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>219.5474509009471</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.0007496189998207752</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>-31.25159414365812</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.5831417290967718</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.1343936415610785</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>1741623.121389646</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>62.40954181665377</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>2986620.635239474</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>64.75180061410471</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>22222931.0892073</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>73.46801339569605</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>29.2</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>30.0423661590643</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>18</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>19.27493539598824</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>0.5434111673809942</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.2473148319877148</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27">
+        <v>-4.28</v>
+      </c>
+      <c r="E27">
+        <v>-10.55</v>
+      </c>
+      <c r="F27">
         <v>30.2</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>225</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>218.755808401621</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.0001273635562679338</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-38.94954822989123</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.4929732854229205</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.627260664915144</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>291664.485107812</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>54.64883549928311</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>591643.5915134709</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>57.72060164743913</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>943218.0664373535</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>59.74612110660938</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>30.2</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>30.65426112643307</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>18.88</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>19.45989306269647</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>0.8374767103144014</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.7489887864220854</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28">
+        <v>-172.32</v>
+      </c>
+      <c r="E28">
+        <v>11.93</v>
+      </c>
+      <c r="F28">
         <v>29.2</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>225</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>223.923854056362</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.007958211860389048</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>-20.99184503418688</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.9792107028915673</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.1985566924676976</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>20008610.86765064</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>73.01216938038721</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>20433407.03749057</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>73.1034078632001</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>102909686.8181102</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>80.12456256527724</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>29.2</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>27.82977861277137</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>18.9</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>18.95860546169963</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>0.1991437097705727</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.997052293022203</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29">
+        <v>-172.16</v>
+      </c>
+      <c r="E29">
+        <v>11.7</v>
+      </c>
+      <c r="F29">
         <v>29.2</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>225</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>223.9462310352596</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.0004373452049913304</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>-33.59175630673355</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.9800576943173848</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.1178933331090841</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>1100017.008741471</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>60.41399400381367</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>1122400.257780374</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>60.50147757764228</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>9520472.686456675</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>69.78658511412161</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>29.2</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>27.87222558540253</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>18.11</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>18.96115269154546</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>0.2197430431834811</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.5365054174235931</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30">
+        <v>0.36</v>
+      </c>
+      <c r="E30">
+        <v>-1.65</v>
+      </c>
+      <c r="F30">
         <v>28.2</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>225</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>217.8606507788903</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.01082483987998926</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>-19.65578518970108</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.3966775975955751</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.4413356044283864</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>24385780.89710482</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>73.87136667406504</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>61475064.49801297</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>77.88698993061287</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>139293235.9890494</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>81.43930027809795</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>28.2</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>29.16229718344745</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>19.21</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>19.37010893308593</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>0.4511676153855366</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.9782076314392636</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31">
+        <v>-0.35</v>
+      </c>
+      <c r="E31">
+        <v>-6.05</v>
+      </c>
+      <c r="F31">
         <v>29.2</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>225</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>219.3705446418434</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.009565979785440347</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-20.19270541201979</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.5627672150656547</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>0.597311486606904</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>22153518.52798874</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>73.45442712768354</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>39365332.4765982</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>75.95113923811627</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>65904194.64426751</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>78.18913057278137</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>29.2</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>29.81826328868302</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>19.01</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>19.47615455248197</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>0.7199699530108441</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.8296339091777449</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32">
+        <v>0.79</v>
+      </c>
+      <c r="E32">
+        <v>-4.99</v>
+      </c>
+      <c r="F32">
         <v>29.2</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>225</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>217.2344811124562</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.0009080005902962866</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-30.4191386914154</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.3348953723343016</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.1368616068366727</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>2022093.227063604</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>63.05801174531905</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>6037984.977126217</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>67.80892028137343</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>44117449.12751024</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>76.44610393571573</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>29.2</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>29.62250463025991</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>18.2</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>19.66128684309949</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>0.8577603021385531</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>0.1595569374048341</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33">
+        <v>0.33</v>
+      </c>
+      <c r="E33">
+        <v>-4.39</v>
+      </c>
+      <c r="F33">
         <v>30.2</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>225</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>217.7856204795728</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.0001369048453446577</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>-38.63581181017146</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.3890030101988876</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.6818214155086343</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>307989.2976930157</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>54.88535625482192</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>791740.1398399163</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>58.98582663468289</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>1161213.364425175</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>60.64912025491282</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>30.2</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>29.58246511774142</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>19.46</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>19.71345778411158</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>0.720527206382177</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>0.9462812916282681</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34">
+        <v>1.47</v>
+      </c>
+      <c r="E34">
+        <v>-4.82</v>
+      </c>
+      <c r="F34">
         <v>28.2</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>210</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>216.9348965326631</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.03637260668563977</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>-14.39225573605093</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.4179340796202418</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>0.08571908422757885</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>80554925.89317912</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>79.0609210245625</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>192745530.5065713</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>82.84984316171304</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>2248571974.880692</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>93.51906793524257</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>28.2</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>29.5644162557536</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>20.64</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>19.64169446306543</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>0.201879568685076</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>0.424605049366324</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,16 +55,22 @@
     <t>C_initial [dB]</t>
   </si>
   <si>
-    <t>C_after</t>
-  </si>
-  <si>
-    <t>C_after [dB]</t>
-  </si>
-  <si>
-    <t>C_after_wb</t>
-  </si>
-  <si>
-    <t>C_after_wb [dB]</t>
+    <t>C_after Wr</t>
+  </si>
+  <si>
+    <t>C_after Wr [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb Only</t>
+  </si>
+  <si>
+    <t>C_after Wb Only [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb</t>
+  </si>
+  <si>
+    <t>C_after Wb [dB]</t>
   </si>
   <si>
     <t>Theta X bar</t>
@@ -596,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,16 +678,22 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>168.75</v>
@@ -723,39 +735,45 @@
         <v>53.31867968502319</v>
       </c>
       <c r="Q2">
+        <v>234341.0465813352</v>
+      </c>
+      <c r="R2">
+        <v>53.69848365176044</v>
+      </c>
+      <c r="S2">
         <v>248329.3009229328</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>53.95027965943513</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>29.2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>29.12004113966941</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>18.85</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>19.25349704636073</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.9945198875089404</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.8694138020420846</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>176.01</v>
@@ -797,39 +815,45 @@
         <v>77.75405512639718</v>
       </c>
       <c r="Q3">
+        <v>33679988.23785768</v>
+      </c>
+      <c r="R3">
+        <v>75.27371931157946</v>
+      </c>
+      <c r="S3">
         <v>93472398.3459225</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>79.70683386105115</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>28.2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>27.52162479563881</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>18.72</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>18.97089688620396</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.6733172567692747</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.9473323785975151</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>16.5</v>
@@ -871,39 +895,45 @@
         <v>59.50155068902309</v>
       </c>
       <c r="Q4">
+        <v>20911503.51497232</v>
+      </c>
+      <c r="R4">
+        <v>73.20385259253899</v>
+      </c>
+      <c r="S4">
         <v>22547847.24080112</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>73.53105083860504</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>29.2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>30.91181907129084</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>21.28</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>20.3699854859449</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.08056974884744961</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.4907699639010117</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>0.44</v>
@@ -945,39 +975,45 @@
         <v>75.67441118339195</v>
       </c>
       <c r="Q5">
+        <v>84430654.7375491</v>
+      </c>
+      <c r="R5">
+        <v>79.26500157125905</v>
+      </c>
+      <c r="S5">
         <v>292085743.6234736</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>84.65510360065798</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>28.2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>29.51222517397799</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>18.03</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>18.85701826709106</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.2276345738697349</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.555510834250504</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>-0.58</v>
@@ -1019,39 +1055,45 @@
         <v>76.2264334762652</v>
       </c>
       <c r="Q6">
+        <v>27925012.48161636</v>
+      </c>
+      <c r="R6">
+        <v>74.45993375903883</v>
+      </c>
+      <c r="S6">
         <v>59562990.46175382</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>77.74976494124375</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>29.2</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>29.76048837331106</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>19.11</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>18.80349123780621</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.7633707370024503</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.9224255965815744</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>-1.36</v>
@@ -1093,39 +1135,45 @@
         <v>72.94882021249704</v>
       </c>
       <c r="Q7">
+        <v>13373886.74105284</v>
+      </c>
+      <c r="R7">
+        <v>71.26257640985605</v>
+      </c>
+      <c r="S7">
         <v>31977857.14788248</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>75.04849358095943</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>29.2</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>29.75172126169428</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>18.32</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>18.82803379931683</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.7697953779785772</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.8010458300544566</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>0.63</v>
@@ -1167,39 +1215,45 @@
         <v>85.53133638240669</v>
       </c>
       <c r="Q8">
+        <v>210086862.7763819</v>
+      </c>
+      <c r="R8">
+        <v>83.22398895803821</v>
+      </c>
+      <c r="S8">
         <v>556616855.2599607</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>87.45556353337511</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>28.2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>28.86733563993453</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>19.16</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>18.89512937891049</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.6819698863634402</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.9414821423202233</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>-1.5</v>
@@ -1241,39 +1295,45 @@
         <v>74.45086580479077</v>
       </c>
       <c r="Q9">
+        <v>13005437.5397336</v>
+      </c>
+      <c r="R9">
+        <v>71.14124967673411</v>
+      </c>
+      <c r="S9">
         <v>31723491.11338871</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>75.01380974605573</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>29.2</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>29.35075223717412</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>18.4</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>18.75788874338016</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.9806561985871564</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.8957541482819247</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>-2.27</v>
@@ -1315,39 +1375,45 @@
         <v>76.26396223108787</v>
       </c>
       <c r="Q10">
+        <v>56937971.71962699</v>
+      </c>
+      <c r="R10">
+        <v>77.55401992374283</v>
+      </c>
+      <c r="S10">
         <v>128838222.6240059</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>81.10044724918914</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>29.2</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>30.33699028530697</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>18.84</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>18.89412441585073</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.3291887619871046</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.9974852847938868</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>-1.63</v>
@@ -1389,39 +1455,45 @@
         <v>62.91204367853268</v>
       </c>
       <c r="Q11">
+        <v>749692.7101108817</v>
+      </c>
+      <c r="R11">
+        <v>58.74883287858236</v>
+      </c>
+      <c r="S11">
         <v>2297777.374070307</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>63.61307948679317</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>30.2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>29.78163338571719</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>18.74</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>18.85302328807143</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.8603294327746922</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.9890804968996109</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>-1.99</v>
@@ -1463,39 +1535,45 @@
         <v>85.52413568273614</v>
       </c>
       <c r="Q12">
+        <v>1098989306.873119</v>
+      </c>
+      <c r="R12">
+        <v>90.40993466774181</v>
+      </c>
+      <c r="S12">
         <v>3084458648.224467</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>94.89178952252777</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>28.2</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>29.7835519935558</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>18.84</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>18.88384896759857</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.1158650173701231</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.9983487648035659</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>-1.99</v>
@@ -1537,39 +1615,45 @@
         <v>80.93261098780515</v>
       </c>
       <c r="Q13">
+        <v>390722425.2077891</v>
+      </c>
+      <c r="R13">
+        <v>85.91868337931997</v>
+      </c>
+      <c r="S13">
         <v>1071584647.199434</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>90.30026482759678</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>28.2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>29.7835519935558</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>18.84</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>18.88384896759857</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.1158650173701231</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0.9983487648035659</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>-0.62</v>
@@ -1611,39 +1695,45 @@
         <v>72.06012618152141</v>
       </c>
       <c r="Q14">
+        <v>23537023.36570699</v>
+      </c>
+      <c r="R14">
+        <v>73.7175153847393</v>
+      </c>
+      <c r="S14">
         <v>46612911.46583463</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>76.68506230030994</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>29.2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>30.0469309968044</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>18</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>18.72229570401141</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>0.539821365300043</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0.6386402979123146</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>-179.5</v>
@@ -1685,39 +1775,45 @@
         <v>75.66784083024149</v>
       </c>
       <c r="Q15">
+        <v>112651572.9525278</v>
+      </c>
+      <c r="R15">
+        <v>80.51737260150696</v>
+      </c>
+      <c r="S15">
         <v>2385783348.784736</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>93.77631003165297</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>30.2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>32.18058026052951</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>20.31</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>19.34641636092758</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>0.0343352316584843</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.4502078859629755</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>-0.39</v>
@@ -1759,39 +1855,45 @@
         <v>85.11504864764177</v>
       </c>
       <c r="Q16">
+        <v>5722746709.337872</v>
+      </c>
+      <c r="R16">
+        <v>97.57604524316352</v>
+      </c>
+      <c r="S16">
         <v>26766332871.14582</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>104.2758887462664</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>28.2</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>30.0878988085682</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>20.13</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>18.87742028650461</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>0.0467276522703118</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.2596223213573456</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>0.08</v>
@@ -1833,39 +1935,45 @@
         <v>83.81359347674896</v>
       </c>
       <c r="Q17">
+        <v>2438658048.891174</v>
+      </c>
+      <c r="R17">
+        <v>93.87150907369453</v>
+      </c>
+      <c r="S17">
         <v>5251650171.111811</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>97.20295788663469</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>28.2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>30.08279164371014</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>19.33</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>19.12492296706349</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>0.04750752348830987</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>0.9644976354402719</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>0.85</v>
@@ -1907,39 +2015,45 @@
         <v>77.40590152504872</v>
       </c>
       <c r="Q18">
+        <v>64734751.90480229</v>
+      </c>
+      <c r="R18">
+        <v>78.11137487912224</v>
+      </c>
+      <c r="S18">
         <v>147395712.3003107</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>81.68484850202822</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>29.2</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>29.53097969787205</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>20.1</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>19.08178271877957</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>0.9101400371011347</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>0.410201347689563</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>1.31</v>
@@ -1981,39 +2095,45 @@
         <v>81.20785884279709</v>
       </c>
       <c r="Q19">
+        <v>71585728.67816414</v>
+      </c>
+      <c r="R19">
+        <v>78.54826450043979</v>
+      </c>
+      <c r="S19">
         <v>152588646.9675357</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>81.8352222206728</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>29.2</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>29.56504109744098</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>19.3</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>19.11341673579931</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>0.8917820654602556</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>0.9705209801858827</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>-1.16</v>
@@ -2055,39 +2175,45 @@
         <v>58.94399148523415</v>
       </c>
       <c r="Q20">
+        <v>587205.7442929049</v>
+      </c>
+      <c r="R20">
+        <v>57.68790295379589</v>
+      </c>
+      <c r="S20">
         <v>953229.7965804363</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>59.79197609302</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>30.2</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>30.59914310978454</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>19.31</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>19.0495068086233</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>0.872029158650936</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>0.9433449572787412</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>-0.55</v>
@@ -2129,39 +2255,45 @@
         <v>79.848742463848</v>
       </c>
       <c r="Q21">
+        <v>114940854.3848267</v>
+      </c>
+      <c r="R21">
+        <v>80.60474421031857</v>
+      </c>
+      <c r="S21">
         <v>273682368.549022</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>84.37246819739265</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>28.2</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>29.18860906737109</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>18.56</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>19.04429476895842</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>0.4316947477958291</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>0.8174301681670052</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>-2.31</v>
@@ -2203,39 +2335,45 @@
         <v>73.55748994001203</v>
       </c>
       <c r="Q22">
+        <v>133263621.0240823</v>
+      </c>
+      <c r="R22">
+        <v>81.24711609693129</v>
+      </c>
+      <c r="S22">
         <v>470847437.9782792</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>86.72880211635997</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>29.2</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>30.14168712363436</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>20.78</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>19.15464744092768</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>0.4666441627061219</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>0.103248308353496</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>-1.35</v>
@@ -2277,39 +2415,45 @@
         <v>62.3480330256922</v>
       </c>
       <c r="Q23">
+        <v>958918.6646037441</v>
+      </c>
+      <c r="R23">
+        <v>59.81781771913308</v>
+      </c>
+      <c r="S23">
         <v>2361873.566733419</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>63.73256645716255</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>30.2</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>29.61842582062017</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>18.79</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>18.9707839441742</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>0.7477328583570422</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>0.9722997882259415</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24">
         <v>-0.73</v>
@@ -2351,39 +2495,45 @@
         <v>79.9134680585306</v>
       </c>
       <c r="Q24">
+        <v>282858201.1931808</v>
+      </c>
+      <c r="R24">
+        <v>84.51568775197016</v>
+      </c>
+      <c r="S24">
         <v>624592925.3937967</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>87.95597060778208</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>28.2</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>29.65533405439113</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>19.06</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>18.86879505066807</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>0.1619558234095496</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>0.9690655986798229</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>-0.46</v>
@@ -2425,39 +2575,45 @@
         <v>74.56757905313837</v>
       </c>
       <c r="Q25">
+        <v>37599717.24982398</v>
+      </c>
+      <c r="R25">
+        <v>75.75184579041945</v>
+      </c>
+      <c r="S25">
         <v>64477836.81689559</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>78.09410458787039</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>29.2</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>30.0423661590643</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>18.79</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>19.27493539598824</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>0.5434111673809942</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>0.8169940381678047</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>-0.46</v>
@@ -2499,39 +2655,45 @@
         <v>64.75180061410471</v>
       </c>
       <c r="Q26">
+        <v>12959118.46095875</v>
+      </c>
+      <c r="R26">
+        <v>71.12575459824511</v>
+      </c>
+      <c r="S26">
         <v>22222931.0892073</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>73.46801339569605</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>29.2</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>30.0423661590643</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>18</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>19.27493539598824</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>0.5434111673809942</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>0.2473148319877148</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>-4.28</v>
@@ -2573,39 +2735,45 @@
         <v>57.72060164743913</v>
       </c>
       <c r="Q27">
+        <v>464981.3090818767</v>
+      </c>
+      <c r="R27">
+        <v>56.67435495845335</v>
+      </c>
+      <c r="S27">
         <v>943218.0664373535</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>59.74612110660938</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>30.2</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>30.65426112643307</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>18.88</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>19.45989306269647</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>0.8374767103144014</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>0.7489887864220854</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>-172.32</v>
@@ -2647,39 +2815,45 @@
         <v>73.1034078632001</v>
       </c>
       <c r="Q28">
+        <v>100770266.7635127</v>
+      </c>
+      <c r="R28">
+        <v>80.03332408246433</v>
+      </c>
+      <c r="S28">
         <v>102909686.8181102</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>80.12456256527724</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>29.2</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>27.82977861277137</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>18.9</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>18.95860546169963</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>0.1991437097705727</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>0.997052293022203</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>-172.16</v>
@@ -2721,39 +2895,45 @@
         <v>60.50147757764228</v>
       </c>
       <c r="Q29">
+        <v>9330612.509900367</v>
+      </c>
+      <c r="R29">
+        <v>69.699101540293</v>
+      </c>
+      <c r="S29">
         <v>9520472.686456675</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>69.78658511412161</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>29.2</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>27.87222558540253</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>18.11</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>18.96115269154546</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>0.2197430431834811</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>0.5365054174235931</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>0.36</v>
@@ -2795,39 +2975,45 @@
         <v>77.88698993061287</v>
       </c>
       <c r="Q30">
+        <v>55254506.21344962</v>
+      </c>
+      <c r="R30">
+        <v>77.42367702155011</v>
+      </c>
+      <c r="S30">
         <v>139293235.9890494</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>81.43930027809795</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>28.2</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>29.16229718344745</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>19.21</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>19.37010893308593</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>0.4511676153855366</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>0.9782076314392636</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31">
         <v>-0.35</v>
@@ -2869,39 +3055,45 @@
         <v>75.95113923811627</v>
       </c>
       <c r="Q31">
+        <v>37088720.08109927</v>
+      </c>
+      <c r="R31">
+        <v>75.69241846234863</v>
+      </c>
+      <c r="S31">
         <v>65904194.64426751</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>78.18913057278137</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>29.2</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>29.81826328868302</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>19.01</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>19.47615455248197</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>0.7199699530108441</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>0.8296339091777449</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <v>0.79</v>
@@ -2943,39 +3135,45 @@
         <v>67.80892028137343</v>
       </c>
       <c r="Q32">
+        <v>14774729.55199715</v>
+      </c>
+      <c r="R32">
+        <v>71.69519539966134</v>
+      </c>
+      <c r="S32">
         <v>44117449.12751024</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>76.44610393571573</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>29.2</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>29.62250463025991</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>18.2</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>19.66128684309949</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>0.8577603021385531</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>0.1595569374048341</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>0.33</v>
@@ -3017,39 +3215,45 @@
         <v>58.98582663468289</v>
       </c>
       <c r="Q33">
+        <v>451715.4942445709</v>
+      </c>
+      <c r="R33">
+        <v>56.54864987505186</v>
+      </c>
+      <c r="S33">
         <v>1161213.364425175</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>60.64912025491282</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>30.2</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>29.58246511774142</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>19.46</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>19.71345778411158</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>0.720527206382177</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>0.9462812916282681</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>1.47</v>
@@ -3091,27 +3295,33 @@
         <v>82.84984316171304</v>
       </c>
       <c r="Q34">
+        <v>939754858.7816314</v>
+      </c>
+      <c r="R34">
+        <v>89.73014579809202</v>
+      </c>
+      <c r="S34">
         <v>2248571974.880692</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>93.51906793524257</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>28.2</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>29.5644162557536</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>20.64</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>19.64169446306543</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>0.201879568685076</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>0.424605049366324</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Datetime</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Wb y</t>
+  </si>
+  <si>
+    <t>Exp Constant</t>
+  </si>
+  <si>
+    <t>Exp Constant [dB]</t>
   </si>
   <si>
     <t>2022-05-09  08:53:51</t>
@@ -602,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,16 +690,22 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>168.75</v>
@@ -764,16 +776,22 @@
       <c r="Z2">
         <v>0.8694138020420846</v>
       </c>
+      <c r="AA2">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB2">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>176.01</v>
@@ -844,16 +862,22 @@
       <c r="Z3">
         <v>0.9473323785975151</v>
       </c>
+      <c r="AA3">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB3">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>16.5</v>
@@ -924,16 +948,22 @@
       <c r="Z4">
         <v>0.4907699639010117</v>
       </c>
+      <c r="AA4">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB4">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>0.44</v>
@@ -1004,16 +1034,22 @@
       <c r="Z5">
         <v>0.555510834250504</v>
       </c>
+      <c r="AA5">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB5">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>-0.58</v>
@@ -1084,16 +1120,22 @@
       <c r="Z6">
         <v>0.9224255965815744</v>
       </c>
+      <c r="AA6">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB6">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>-1.36</v>
@@ -1164,16 +1206,22 @@
       <c r="Z7">
         <v>0.8010458300544566</v>
       </c>
+      <c r="AA7">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB7">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>0.63</v>
@@ -1244,16 +1292,22 @@
       <c r="Z8">
         <v>0.9414821423202233</v>
       </c>
+      <c r="AA8">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB8">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>-1.5</v>
@@ -1324,16 +1378,22 @@
       <c r="Z9">
         <v>0.8957541482819247</v>
       </c>
+      <c r="AA9">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB9">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>-2.27</v>
@@ -1404,16 +1464,22 @@
       <c r="Z10">
         <v>0.9974852847938868</v>
       </c>
+      <c r="AA10">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB10">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>-1.63</v>
@@ -1484,16 +1550,22 @@
       <c r="Z11">
         <v>0.9890804968996109</v>
       </c>
+      <c r="AA11">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB11">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>-1.99</v>
@@ -1564,16 +1636,22 @@
       <c r="Z12">
         <v>0.9983487648035659</v>
       </c>
+      <c r="AA12">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB12">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>-1.99</v>
@@ -1644,16 +1722,22 @@
       <c r="Z13">
         <v>0.9983487648035659</v>
       </c>
+      <c r="AA13">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB13">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>-0.62</v>
@@ -1724,16 +1808,22 @@
       <c r="Z14">
         <v>0.6386402979123146</v>
       </c>
+      <c r="AA14">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB14">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>-179.5</v>
@@ -1804,16 +1894,22 @@
       <c r="Z15">
         <v>0.4502078859629755</v>
       </c>
+      <c r="AA15">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB15">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>-0.39</v>
@@ -1884,16 +1980,22 @@
       <c r="Z16">
         <v>0.2596223213573456</v>
       </c>
+      <c r="AA16">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB16">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>0.08</v>
@@ -1964,16 +2066,22 @@
       <c r="Z17">
         <v>0.9644976354402719</v>
       </c>
+      <c r="AA17">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB17">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>0.85</v>
@@ -2044,16 +2152,22 @@
       <c r="Z18">
         <v>0.410201347689563</v>
       </c>
+      <c r="AA18">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB18">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>1.31</v>
@@ -2124,16 +2238,22 @@
       <c r="Z19">
         <v>0.9705209801858827</v>
       </c>
+      <c r="AA19">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB19">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>-1.16</v>
@@ -2204,16 +2324,22 @@
       <c r="Z20">
         <v>0.9433449572787412</v>
       </c>
+      <c r="AA20">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB20">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>-0.55</v>
@@ -2284,16 +2410,22 @@
       <c r="Z21">
         <v>0.8174301681670052</v>
       </c>
+      <c r="AA21">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB21">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>-2.31</v>
@@ -2364,16 +2496,22 @@
       <c r="Z22">
         <v>0.103248308353496</v>
       </c>
+      <c r="AA22">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB22">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>-1.35</v>
@@ -2444,16 +2582,22 @@
       <c r="Z23">
         <v>0.9722997882259415</v>
       </c>
+      <c r="AA23">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB23">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24">
         <v>-0.73</v>
@@ -2524,16 +2668,22 @@
       <c r="Z24">
         <v>0.9690655986798229</v>
       </c>
+      <c r="AA24">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB24">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>-0.46</v>
@@ -2604,16 +2754,22 @@
       <c r="Z25">
         <v>0.8169940381678047</v>
       </c>
+      <c r="AA25">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB25">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26">
         <v>-0.46</v>
@@ -2684,16 +2840,22 @@
       <c r="Z26">
         <v>0.2473148319877148</v>
       </c>
+      <c r="AA26">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB26">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>-4.28</v>
@@ -2764,16 +2926,22 @@
       <c r="Z27">
         <v>0.7489887864220854</v>
       </c>
+      <c r="AA27">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB27">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28">
         <v>-172.32</v>
@@ -2844,16 +3012,22 @@
       <c r="Z28">
         <v>0.997052293022203</v>
       </c>
+      <c r="AA28">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB28">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>-172.16</v>
@@ -2924,16 +3098,22 @@
       <c r="Z29">
         <v>0.5365054174235931</v>
       </c>
+      <c r="AA29">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB29">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>0.36</v>
@@ -3004,16 +3184,22 @@
       <c r="Z30">
         <v>0.9782076314392636</v>
       </c>
+      <c r="AA30">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB30">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>-0.35</v>
@@ -3084,16 +3270,22 @@
       <c r="Z31">
         <v>0.8296339091777449</v>
       </c>
+      <c r="AA31">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB31">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32">
         <v>0.79</v>
@@ -3164,16 +3356,22 @@
       <c r="Z32">
         <v>0.1595569374048341</v>
       </c>
+      <c r="AA32">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB32">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33">
         <v>0.33</v>
@@ -3244,16 +3442,22 @@
       <c r="Z33">
         <v>0.9462812916282681</v>
       </c>
+      <c r="AA33">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB33">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>1.47</v>
@@ -3323,6 +3527,12 @@
       </c>
       <c r="Z34">
         <v>0.424605049366324</v>
+      </c>
+      <c r="AA34">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB34">
+        <v>85.85743731821252</v>
       </c>
     </row>
   </sheetData>
